--- a/TC_Eassignment_Employer_ST.xlsx
+++ b/TC_Eassignment_Employer_ST.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -27,9 +27,6 @@
     <t>Module name</t>
   </si>
   <si>
-    <t>Employer</t>
-  </si>
-  <si>
     <t>Type of test case</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Windows 8,Php,Mysql,GoDaddy</t>
+  </si>
+  <si>
+    <t>Emp</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
   <dimension ref="A2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -808,10 +808,10 @@
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -865,10 +865,10 @@
     </row>
     <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -884,10 +884,10 @@
     </row>
     <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -903,10 +903,10 @@
     </row>
     <row r="10" spans="1:13" ht="45">
       <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -922,7 +922,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -939,10 +939,10 @@
     </row>
     <row r="12" spans="1:13" ht="31.5">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="7"/>
@@ -988,43 +988,43 @@
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
       <c r="A15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="C15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="G15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="H15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="I15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="J15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="K15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="L15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="M15" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1047,26 +1047,26 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="16"/>
       <c r="I17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="K17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="L17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -1077,32 +1077,32 @@
         <v>1</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="M18" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="135">
@@ -1110,32 +1110,32 @@
         <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="M19" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1185,7 +1185,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="26" spans="1:16" ht="15.75">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>

--- a/TC_Eassignment_Employer_ST.xlsx
+++ b/TC_Eassignment_Employer_ST.xlsx
@@ -115,9 +115,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>System</t>
-  </si>
-  <si>
     <t>Tc_Eassignment_Employer_ST_001</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Windows 8,Php,Mysql,GoDaddy</t>
+  </si>
+  <si>
+    <t>System testing</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
   <dimension ref="A2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -942,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="7"/>
@@ -1077,29 +1077,29 @@
         <v>1</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="M18" s="21" t="s">
         <v>31</v>
@@ -1110,29 +1110,29 @@
         <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="M19" s="21" t="s">
         <v>31</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="26" spans="1:16" ht="15.75">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
